--- a/DIODE_TRANSISTOR.xlsx
+++ b/DIODE_TRANSISTOR.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="195">
   <si>
     <t>Name</t>
   </si>
@@ -237,6 +237,378 @@
   </si>
   <si>
     <t>1.2V @ 1A</t>
+  </si>
+  <si>
+    <t>PN2222ATFR</t>
+  </si>
+  <si>
+    <t>PN2222</t>
+  </si>
+  <si>
+    <t>TO-92</t>
+  </si>
+  <si>
+    <t>NPN</t>
+  </si>
+  <si>
+    <t>BC846A</t>
+  </si>
+  <si>
+    <t>0.1 A</t>
+  </si>
+  <si>
+    <t>AO3460</t>
+  </si>
+  <si>
+    <t>65 V</t>
+  </si>
+  <si>
+    <t>40V</t>
+  </si>
+  <si>
+    <t>0.65 A</t>
+  </si>
+  <si>
+    <t>SOT-23-3</t>
+  </si>
+  <si>
+    <t>N-MOSFET</t>
+  </si>
+  <si>
+    <t>BC550CBU</t>
+  </si>
+  <si>
+    <t>45 V</t>
+  </si>
+  <si>
+    <t>BC550</t>
+  </si>
+  <si>
+    <t>ZHCS1000</t>
+  </si>
+  <si>
+    <t>ZHCS1000TA</t>
+  </si>
+  <si>
+    <t>BAT54C</t>
+  </si>
+  <si>
+    <t>30 V</t>
+  </si>
+  <si>
+    <t>BAT54C-G</t>
+  </si>
+  <si>
+    <t>FDC6333C</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>N &amp; P MOSFET</t>
+  </si>
+  <si>
+    <t>PMEG3010ER</t>
+  </si>
+  <si>
+    <t>PMEG3010ER,115</t>
+  </si>
+  <si>
+    <t>SOD-123W-2</t>
+  </si>
+  <si>
+    <t>NTD3055L104T4G</t>
+  </si>
+  <si>
+    <t>NTD3055L104</t>
+  </si>
+  <si>
+    <t>12 A</t>
+  </si>
+  <si>
+    <t>DPAK</t>
+  </si>
+  <si>
+    <t>BAT54J</t>
+  </si>
+  <si>
+    <t>BAT54J,115</t>
+  </si>
+  <si>
+    <t>SOD-323F</t>
+  </si>
+  <si>
+    <t>800MV @ 100MA</t>
+  </si>
+  <si>
+    <t>ULN2803</t>
+  </si>
+  <si>
+    <t>0.5 A</t>
+  </si>
+  <si>
+    <t>ULN2803AN</t>
+  </si>
+  <si>
+    <t>DIP-18</t>
+  </si>
+  <si>
+    <t>NPN ARRAY</t>
+  </si>
+  <si>
+    <t>75 V</t>
+  </si>
+  <si>
+    <t>1N4148UR-1</t>
+  </si>
+  <si>
+    <t>DO-213AA</t>
+  </si>
+  <si>
+    <t>1.2V @ 100MA</t>
+  </si>
+  <si>
+    <t>NUP2105</t>
+  </si>
+  <si>
+    <t>24 V</t>
+  </si>
+  <si>
+    <t>8 A</t>
+  </si>
+  <si>
+    <t>NUP2105LT1G</t>
+  </si>
+  <si>
+    <t>BAS21VD</t>
+  </si>
+  <si>
+    <t>250 V</t>
+  </si>
+  <si>
+    <t>TSOP6</t>
+  </si>
+  <si>
+    <t>1.25V @ 200MA</t>
+  </si>
+  <si>
+    <t>SI2300</t>
+  </si>
+  <si>
+    <t>4.5 A</t>
+  </si>
+  <si>
+    <t>SI2300-TP</t>
+  </si>
+  <si>
+    <t>BSS138</t>
+  </si>
+  <si>
+    <t>0.22 A</t>
+  </si>
+  <si>
+    <t>TO-220</t>
+  </si>
+  <si>
+    <t>TIP31AG</t>
+  </si>
+  <si>
+    <t>TIP31</t>
+  </si>
+  <si>
+    <t>2N3904</t>
+  </si>
+  <si>
+    <t>BT137</t>
+  </si>
+  <si>
+    <t>600 V</t>
+  </si>
+  <si>
+    <t>BT137S-600,118</t>
+  </si>
+  <si>
+    <t>TRIAC</t>
+  </si>
+  <si>
+    <t>MMSZ5252</t>
+  </si>
+  <si>
+    <t>MMSZ5252BT1G</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
+  </si>
+  <si>
+    <t>MMSZ5246B-V-GS18</t>
+  </si>
+  <si>
+    <t>16 V</t>
+  </si>
+  <si>
+    <t>MMSZ5246</t>
+  </si>
+  <si>
+    <t>SM4007</t>
+  </si>
+  <si>
+    <t>SM4007-W</t>
+  </si>
+  <si>
+    <t>1 KV</t>
+  </si>
+  <si>
+    <t>MELF</t>
+  </si>
+  <si>
+    <t>TIP42</t>
+  </si>
+  <si>
+    <t>6 A</t>
+  </si>
+  <si>
+    <t>PNP</t>
+  </si>
+  <si>
+    <t>RS1G</t>
+  </si>
+  <si>
+    <t>400 V</t>
+  </si>
+  <si>
+    <t>DO-214AC</t>
+  </si>
+  <si>
+    <t>MOC3012</t>
+  </si>
+  <si>
+    <t>MOC3012X</t>
+  </si>
+  <si>
+    <t>5.3 KV</t>
+  </si>
+  <si>
+    <t>0.005 A</t>
+  </si>
+  <si>
+    <t>DIP-6</t>
+  </si>
+  <si>
+    <t>1N5819HW-7-F</t>
+  </si>
+  <si>
+    <t>BAT60J</t>
+  </si>
+  <si>
+    <t>10 V</t>
+  </si>
+  <si>
+    <t>BAT60JFILM</t>
+  </si>
+  <si>
+    <t>SOD-323</t>
+  </si>
+  <si>
+    <t>2N7002</t>
+  </si>
+  <si>
+    <t>0.26 A</t>
+  </si>
+  <si>
+    <t>2N7002ET1G</t>
+  </si>
+  <si>
+    <t>B120</t>
+  </si>
+  <si>
+    <t>B120-E3/5AT</t>
+  </si>
+  <si>
+    <t>MMBT3646</t>
+  </si>
+  <si>
+    <t>0.3 A</t>
+  </si>
+  <si>
+    <t>NTD20N03L27</t>
+  </si>
+  <si>
+    <t>20 A</t>
+  </si>
+  <si>
+    <t>NTD20N03L27T4G</t>
+  </si>
+  <si>
+    <t>CD214A</t>
+  </si>
+  <si>
+    <t>CD214A-B130LF</t>
+  </si>
+  <si>
+    <t>ULN2803ADWR</t>
+  </si>
+  <si>
+    <t>SOIC-18</t>
+  </si>
+  <si>
+    <t>8X NPN</t>
+  </si>
+  <si>
+    <t>CMHSH5-2L</t>
+  </si>
+  <si>
+    <t>DMG4800</t>
+  </si>
+  <si>
+    <t>DMG4800LK3-13</t>
+  </si>
+  <si>
+    <t>10 A</t>
+  </si>
+  <si>
+    <t>TO-252-3</t>
+  </si>
+  <si>
+    <t>BZT52C3V6</t>
+  </si>
+  <si>
+    <t>BZT52C3V6-TP</t>
+  </si>
+  <si>
+    <t>3.6 V</t>
+  </si>
+  <si>
+    <t>200 MW</t>
+  </si>
+  <si>
+    <t>BC546</t>
+  </si>
+  <si>
+    <t>BC546ABU</t>
+  </si>
+  <si>
+    <t>TO-92-3</t>
+  </si>
+  <si>
+    <t>MBT3904DW1T1G</t>
+  </si>
+  <si>
+    <t>MBT3904</t>
+  </si>
+  <si>
+    <t>2X NPN</t>
+  </si>
+  <si>
+    <t>SOT-363</t>
+  </si>
+  <si>
+    <t>BAT54CWT1G</t>
+  </si>
+  <si>
+    <t>SOT-323</t>
+  </si>
+  <si>
+    <t>DUAL SCHOTTKY</t>
   </si>
 </sst>
 </file>
@@ -337,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,9 +732,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -375,6 +744,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -403,15 +778,55 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color rgb="FF7F7F7F"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -431,8 +846,7 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -490,59 +904,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF7F7F7F"/>
@@ -566,6 +927,20 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color rgb="FF7F7F7F"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -580,19 +955,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H47" totalsRowShown="0" headerRowDxfId="1" dataDxfId="10" tableBorderDxfId="9" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:H47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:H54"/>
   <sortState ref="A2:G47">
     <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Name" dataDxfId="8"/>
-    <tableColumn id="2" name="Voltage" dataDxfId="2"/>
-    <tableColumn id="7" name="Current" dataDxfId="3"/>
-    <tableColumn id="3" name="Part Number" dataDxfId="7"/>
-    <tableColumn id="4" name="QTY" dataDxfId="6"/>
-    <tableColumn id="5" name="Package" dataDxfId="4"/>
-    <tableColumn id="6" name="Type" dataDxfId="5"/>
+    <tableColumn id="1" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Voltage" dataDxfId="6"/>
+    <tableColumn id="7" name="Current" dataDxfId="5"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="4"/>
+    <tableColumn id="4" name="QTY" dataDxfId="3"/>
+    <tableColumn id="5" name="Package" dataDxfId="2"/>
+    <tableColumn id="6" name="Type" dataDxfId="1"/>
     <tableColumn id="8" name="Vf" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -862,22 +1237,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18" style="14" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="18" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="11" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -885,10 +1260,10 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -897,13 +1272,13 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -911,10 +1286,10 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -923,13 +1298,13 @@
       <c r="E2" s="6">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>28</v>
       </c>
     </row>
@@ -937,10 +1312,10 @@
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -949,13 +1324,13 @@
       <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -963,10 +1338,10 @@
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -975,13 +1350,13 @@
       <c r="E4" s="6">
         <v>40</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -989,10 +1364,10 @@
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -1001,13 +1376,13 @@
       <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1015,10 +1390,10 @@
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1027,13 +1402,13 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1041,10 +1416,10 @@
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1053,13 +1428,13 @@
       <c r="E7" s="6">
         <v>7</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1067,10 +1442,10 @@
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1079,13 +1454,13 @@
       <c r="E8" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1093,10 +1468,10 @@
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1105,13 +1480,13 @@
       <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1119,10 +1494,10 @@
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1131,13 +1506,13 @@
       <c r="E10" s="6">
         <v>20</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1145,10 +1520,10 @@
       <c r="A11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1157,13 +1532,13 @@
       <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1171,10 +1546,10 @@
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1183,13 +1558,13 @@
       <c r="E12" s="3">
         <v>12</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1197,10 +1572,10 @@
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1209,13 +1584,13 @@
       <c r="E13" s="3">
         <v>20</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1223,10 +1598,10 @@
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1235,13 +1610,13 @@
       <c r="E14" s="6">
         <v>8</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1249,10 +1624,10 @@
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1261,187 +1636,921 @@
       <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="7"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="7"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="7"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D22" s="7"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="7"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="7"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="7"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="7"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="7"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="7"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="7"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="7"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="5"/>
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="6">
+        <v>20</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="6">
+        <v>25</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="3">
+        <v>20</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3">
+        <v>40</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="3">
+        <v>8</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="3">
+        <v>25</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="3">
+        <v>8</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="6">
+        <v>15</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="13"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="5"/>
+      <c r="A33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="7"/>
-      <c r="F34" s="12"/>
+      <c r="A34" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="3">
+        <v>9</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="7"/>
-      <c r="F35" s="12"/>
+      <c r="A35" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="3">
+        <v>30</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="5"/>
+      <c r="A36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="7"/>
-      <c r="F37" s="12"/>
+      <c r="A37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="7"/>
-      <c r="F38" s="12"/>
+      <c r="A38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="8"/>
-      <c r="F39" s="12"/>
+      <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="3">
+        <v>20</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="5"/>
+      <c r="A40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="6">
+        <v>3</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="13"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="5"/>
+      <c r="A41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="6">
+        <v>4</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="13"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="5"/>
+      <c r="A42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="6">
+        <v>10</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="12"/>
+      <c r="A43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43" s="6">
+        <v>30</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="13"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="5"/>
+      <c r="A44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="6">
+        <v>10</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="7"/>
-      <c r="F45" s="12"/>
+      <c r="A45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="13"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="5"/>
+      <c r="A46" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="13"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="5"/>
+      <c r="A47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47" s="6">
+        <v>15</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E51" s="3">
+        <v>15</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DIODE_TRANSISTOR.xlsx
+++ b/DIODE_TRANSISTOR.xlsx
@@ -1239,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1683,7 @@
         <v>75</v>
       </c>
       <c r="E17" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>81</v>

--- a/DIODE_TRANSISTOR.xlsx
+++ b/DIODE_TRANSISTOR.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -609,6 +609,21 @@
   </si>
   <si>
     <t>DUAL SCHOTTKY</t>
+  </si>
+  <si>
+    <t>PMEG4050EP,115‎</t>
+  </si>
+  <si>
+    <t>PMEG4050</t>
+  </si>
+  <si>
+    <t>5 A</t>
+  </si>
+  <si>
+    <t>SOD128</t>
+  </si>
+  <si>
+    <t>BUY THIS</t>
   </si>
 </sst>
 </file>
@@ -709,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -750,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -955,10 +973,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H54" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Explanatory Text">
-  <autoFilter ref="A1:H54"/>
-  <sortState ref="A2:G47">
-    <sortCondition ref="A1:A47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Explanatory Text">
+  <autoFilter ref="A1:H55"/>
+  <sortState ref="A2:H54">
+    <sortCondition ref="A1:A54"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="Name" dataDxfId="7"/>
@@ -1237,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1284,123 +1302,123 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E2" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E3" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="F4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
+      <c r="D5" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>24</v>
@@ -1414,132 +1432,132 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E8" s="3">
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="6">
-        <v>20</v>
+        <v>43</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1569,124 +1587,124 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
+      <c r="A13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2</v>
+        <v>156</v>
+      </c>
+      <c r="E15" s="6">
+        <v>4</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="6">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="3">
-        <v>60</v>
+        <v>130</v>
+      </c>
+      <c r="E17" s="6">
+        <v>6</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>74</v>
@@ -1694,19 +1712,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="E18" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>81</v>
@@ -1716,46 +1734,46 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>85</v>
+      <c r="A19" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="3">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="6">
+        <v>20</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
+        <v>165</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>13</v>
@@ -1763,68 +1781,71 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="6">
-        <v>25</v>
+      <c r="D21" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="3">
+        <v>8</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>94</v>
+      <c r="A23" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="6">
+        <v>25</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>13</v>
@@ -1832,379 +1853,373 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E24" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>82</v>
+        <v>13</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>101</v>
+      <c r="A25" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="3">
-        <v>20</v>
+        <v>159</v>
+      </c>
+      <c r="E25" s="6">
+        <v>10</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
+      <c r="A27" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E27" s="3">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E29" s="3">
         <v>8</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>122</v>
+      <c r="A30" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E30" s="3">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="E31" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>129</v>
+      <c r="A32" s="15" t="s">
+        <v>171</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>128</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="E32" s="6">
         <v>15</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>74</v>
+      <c r="F32" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="6">
-        <v>6</v>
+        <v>176</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
-        <v>131</v>
+      <c r="A34" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>116</v>
+        <v>179</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E34" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E35" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="6">
-        <v>5</v>
+        <v>188</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="E37" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="3">
-        <v>3</v>
+        <v>138</v>
+      </c>
+      <c r="E38" s="6">
+        <v>5</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>148</v>
+        <v>46</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="E39" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,91 +2247,91 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E41" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>157</v>
+      <c r="A42" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="6">
-        <v>10</v>
+        <v>97</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="6">
-        <v>30</v>
+        <v>117</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>81</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>164</v>
+      <c r="A44" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="6">
-        <v>10</v>
+      <c r="D44" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>13</v>
@@ -2324,22 +2339,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="3">
+        <v>71</v>
+      </c>
+      <c r="E45" s="6">
         <v>10</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>74</v>
@@ -2347,209 +2362,238 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E46" s="6">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="3">
+        <v>20</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="3">
+        <v>25</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E47" s="6">
-        <v>15</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E48" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" s="3">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>179</v>
+        <v>8</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E50" s="6">
+        <v>15</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="E51" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E52" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="C54" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E54" s="3">
         <v>3</v>
       </c>
-      <c r="F53" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E54" s="3">
-        <v>6</v>
-      </c>
       <c r="F54" s="11" t="s">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>194</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
